--- a/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,66 +52,39 @@
     <t>400316</t>
   </si>
   <si>
-    <t>Collin C. Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman, and thanks for holding this hearing. This is an issue that I hope that we can find a way to address because if we don't, we are going to have 50 states with 50 different labeling programs, and that is just not going to work. If we don't do something to stop this, we could end up with something similar to what is going on right now in California with their egg standards.    Consumers have expressed their interest in knowing more about where their food comes from, and that is a good thing. But when it comes to labeling, we need to be able to find a smart way to balance this consumer demand, what we know about the safety of the foods that our farmers produce. Done correctly, I think we can find a workable solution.    The Energy and Commerce Committee has most of the jurisdiction here, so at this point our hands are a little bit tied. But I do think it is important for us to move forward and learn more about the impacts some of these state attempts at labeling genetically engineered food and food ingredients are going to have.    So I look forward to hearing from our witnesses and thank you for holding the hearing.    The Chairman. I thank the Ranking Member. I appreciate that. I recognize Subcommittee Chairman Rodney Davis for his statement.</t>
   </si>
   <si>
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and thank you to all the witnesses that are here today. And Mr. Chairman, thank you for holding this hearing on the costs and impacts of the mandatory biotech labeling laws. And I would like to welcome one of my constituents who is on the panel, Mr. Lynn Clarkson. I am very glad you are here representing the small town of Cerro Gordo very, very well.    Clarkson Grain, your company, turned 40 just last year, supplies grain to food manufacturing, animal feed industries. His products include corn, whole grains, and non-GMO grains and oilseeds. I appreciate your testimony about respecting all viewpoints and lowering the temperature in this very heated debate.    I have two distinct memories from the Subcommittee hearing that I shared last year that Ms. Lidback was a part of. First of all, we discussed the needs of biotechnology, and it helps us feed a growing population, reduces negative impacts on our environment, and also helps combat plant and pest diseases. But the rhetoric, as Chairman Conaway said, became pretty charged after the hearing. I was disappointed by this rhetoric and misinformation and the personal attacks leveled not only at you but to those who were part of the hearing, including me.    Thanks for coming back. I know you did receive some rude comments and some bullying on social media, and I really appreciate hearing your perspective as a dairy farmer, and as a father of three children myself, I appreciate hearing your perspective as a mother.    Last, on the right-to-know argument, consumers can already find out information when they are at the grocery store. Food that is labeled as USDA certified organic does not contained genetically modified ingredients. I want to read something from The New York Times editorial just a couple of years ago. ``Consumers can already find products free of GMO ingredients with labels voluntarily placed by the manufacturers. For those who want to avoid such ingredients, the surest way is to buy products certified as organic under Federal standards.'' Now, this is The New York Times, not necessarily a hotbed of conservative rhetoric on their editorial board.    So with that, Mr. Chairman, I yield back.    The Chairman. The gentleman yields back. Thank you. I now recognize the Ranking Member on the Subcommittee, Ms. DelBene, for her statement.OPENING STATEMENT OF HON. SUZAN K. DelBENE, A REPRESENTATIVE IN </t>
   </si>
   <si>
     <t>412505</t>
   </si>
   <si>
-    <t>Suzan K. DelBene</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman. I appreciate you holding this hearing, and I want to thank all of the witnesses for being here today.    As the Ranking Member on the Subcommittee, this is an issue I hear about very often, not only here, but also in my district back home in Washington State. In fact, Washington State was among the states which recently voted on a GMO labeling initiative, and one of the biggest takeaways for many of us from that initiative, as well as this debate generally, is that there needs to be more of a dialogue and more education done on all sides.    I certainly agree that consumers have a right to know what they are eating, and I also believe that we need to be clear and take a science-based approach when we are discussing GMOs. Just as many of us implore folks to look at the science behind climate change, for example, we can't pick and choose. We need to understand the science and its findings, including in this case.    Genetically modified doesn't mean just one thing or just one company, and as someone who started their career in biomedical research, I understand that this technology has the potential to provide benefits to consumers. However, we also need to ensure that we are having an open conversation about its impacts and its challenges. This is often an emotional argument, and it is my hope that moving forward we can have it be more of a fact-based open discussion on all sides.    I am looking forward to the testimony of our panel today and am hopeful that we can move closer to a workable solution as a result for everyone. So thank you again, Mr. Chairman, for this hearing, and I yield back.    The Chairman. I thank the gentlewoman. The chair would request that other Members submit their opening statements for the record so that witnesses may begin their testimony and to ensure there is ample time for questions.    I would now like to welcome to our witness table the following witnesses: We have here Mr. David Schmidt, President and CEO of the International Food Information Council here in D.C. We have Dr. Nina Federoff, the Senior Science Advisor, OFW Law Firm here in D.C. We have Ms. Joanna Lidback, owner of The Farm at Wheeler Mountain, on behalf of Agri-Mark Dairy Cooperative, the National Council of Farmer Cooperatives, and the National Milk Producers Federation from Westmore, Vermont. We have Mr. Lynn Clarkson, President, Clarkson Grain Company at Cerro Gordo--is that close enough--Illinois. Mr. Thomas Dempsey, CEO, Snack Food Association in Arlington, Virginia, and Mr. Chris Policinski. I butchered that, Chris. Sorry about that. President and CEO, Land O' Lakes in Arden Hills, Minnesota.    Mr. Schmidt, begin when you are ready, please.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schmidt. Thank you, Chairman Conway, distinguished Members. I am David Schmidt, President and CEO of the International Food Information Council and Foundation. We effectively communicate science-based information on food safety and nutrition issues to health professionals, journalists, educators, government officials and consumers. We are fortunate to receive support for our programs from leading food, beverage, and agricultural companies, but I must clarify that we don't represent those industries.    Last year, IFIC conducted the 2014 Consumer Perceptions of Food Technology Survey. It was our 16th such survey since 1997. The survey polled 1,000 adults who are reflective of the U.S. population, according to the U.S. Census Bureau. Our survey begins with open-ended questions, which are more reliable when it comes to taking the real pulse of consumers than surveys with a small number of carefully worded questions designed to provoke concerns.    When it comes to food labels, the results show that biotechnology, or even the phrase GMOs, is not a top-of-mind concern for the vast majority of consumers. Following the open-ended questions, we get more specific about biotechnology and genetic engineering, but please note that we do not use the term GMO for two major reasons. Number one, The U.S. FDA has provided labeling guidance to industry, reaffirmed as recently as April 2013, that the scientifically accurate terms are bioengineered, genetically engineered, or foods produced using biotechnology. Their analysis considers the term genetically modified organism, or GMO, as potentially misleading to consumers because it is a distinction without a difference. And as you said, Mr. Chairman, humans have been genetically modifying crops and animals for tens of thousands of years.    Number two, our own consumer research since the early 1990s has found GMO, as a phrase, to be off-putting at best or even frightening to many consumers. And unfortunately in today's marketplace, it is used as something to avoid and a pejorative, rather than a way to inform consumers.    When we first asked if people were avoiding any particular foods or ingredients in their diet, only two percent of total respondents mentioned biotech food or even similar terms like GMOs. Then we asked them if they could think of any information that currently is not on food labels but should be. Three-quarters of them, 75 percent, said no. Just four percent said that labels should carry information about genetic engineering or related terms. Two-thirds of Americans said they were confident in the safety of the food supply. When we asked people about their specific food safety concerns, biotech or any related term was far down the list at seven percent. When we asked the respondents to offer their impressions of food biotechnology before mentioning any benefits, there was an almost-even split between 28 percent who were favorable and 29 percent unfavorable with more than four in ten either neutral or didn't know.    The survey then asked about which sources of information on food biotechnology consumers trust most. Health organizations, cited by 50 percent of consumers ranked first, followed by Federal Government agencies and health professionals at 45 percent each. We then focused on attitudes toward particular benefits of food biotechnology.    Referring back to my point on language above, it is not surprising that consumers may shy away when provoked to be concerned about ``genetically modified organisms in your food.'' But notice the difference in support when we use more informative language to explain some of the benefits of the technology. Seventy-two percent said they were likely to purchase products made with oils modified by biotechnology to provide more healthful fats. Sixty-nine percent were likely to buy such products if they were modified to reduce the potential for carcinogens, and 69 percent also said they would buy bread, crackers, cookies, cereals, or pasta made with flour modified to use less land, water, and/or pesticides.    Next, we returned to labeling issues and tried to get at consumers' attitudes another way, by asking whether people favored the current FDA policy regarding foods produced using biotechnology. We told them the policy requires special labeling only when biotechnology's use substantially changes the food's nutritional content or when a potential safety issue such as a food allergen is identified. Otherwise, special labeling is not required. Sixty-three percent of respondents supported the current FDA policy, while 19 percent opposed it. In fact, every survey we have conducted since 1997 has found a strong majority of Americans support this FDA labeling policy.    When we looked more generally at the most favored uses of food biotechnology, reducing pesticide applications topped the list, followed by keeping food prices stable and helping feed undernourished people around the world.    Mr. Chairman, in closing, let me emphasize that in our nearly 2 decades of consumer research, we have learned that consumers are supportive of the many benefits of food and agricultural biotechnology when clearly articulated. The food label is not a playground for every bit of information someone might want to know. We rely on the FDA to ensure that the precious real estate available on a food label is reserved for important health, ingredient, and nutrition information, and it is clear that a strong majority of Americans have confidence in the FDA's labeling policy for foods produced using biotechnology. Thank you for this opportunity to share consumers' perspectives.</t>
   </si>
   <si>
-    <t>Fedoroff</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fedoroff. Chairman Conway, Representative Peterson, Members of the Committee, thank you for the opportunity to testify before you today. I am Nina Federoff. I am a Professor of Plant Molecular Biology and Genetics. I have had 35 years of experience with GM techniques. I am a member of the U.S. National Academy of Sciences and a National Medal of Science Laureate. I served as Science and Technology Adviser to Secretaries of State Condoleeza Rice and Hillary Clinton. I authored a book titled Mendel in the Kitchen: A Scientist's View of Genetically Modified Foods.    I am here to tell you why mandatory labeling of foods containing GM ingredients will not help Americans make healthful food choices. More than that, I will tell you why such labels could well undermine humanity's efforts to achieve food security.    Now a recent poll, Pew poll, of scientists and the public gave startling results: Only 37 percent of the public believes GMOs are safe as compared with almost 90 percent of scientists.    So why are scientists convinced? GM crops have been in commercial production for almost 20 years. They have an impeccable safety record and multiple environmental benefits. They have boosted farmers' incomes and reduced consumer prices. These are the facts, and they have been documented in independent studies referenced in my written testimony.    Scientific academies around the world concur that modern methods of genetic modification are as safe as those used by previous generations of plant and animal breeders.    Now, until the development of modern GM techniques, breeders had to depend on either rare natural or more recently induced mutations--that is just another term for genetic modifications--to develop better crops. Today we know enough about genes to introduce a desired trait into an already highly productive plant or animal without the undesirable downsides of older methods.    Now it is worth pointing out as the Chairman did that the history of plant and animal genetic modification extends back more than 10,000 years. We created corn, not Mother Nature. We created big, luscious heirloom tomatoes. Mother Nature's are tiny and can be deadly.    Now the FDA just approved Simplot's GM potato that won't turn brown after you cut it, and more importantly, it contains less of a natural amino acid that turns into the toxic compound acrylamide when the potatoes are French fried in hot oil. These potatoes will be more healthful and less wasteful. But today, more than 60 percent of Americans believe that GMOs are unsafe and probably wouldn't choose to buy them.    Now why is that? The reasons lie in the increasingly strident efforts of determined anti-GMO activists to convince the public that GMOs are bad. Some of these folks are--most prominent among these are the NGOs, such as Greenpeace, and marketers of organic foods. A recent, meticulously researched organic marketing report documents how organic marketers have progressively demonized GMOs while advancing organically grown foods as more healthful than conventionally grown food.    Now some of these folks and many other kinds of anti-GMO activists have openly stated that labeling will help them drive GMOs out of the market. Now, the facts are these: Organic produce is no more nutritious than conventionally grown produce. It is more expensive because organic farming is land-inefficient and labor-intensive. The organic industry's false and misleading marketing is a primary reason why consumers believe GMOs are bad and organic food is good. Attaching a GM label provides no consumer benefit since GM foods are as safe and nutritious as their non-GM counterparts. But attaching a label will send the false message that there is something to worry about because the FDA's labels are there to alert consumers to food ingredients with health implications.    Now my final point is that there are serious humanitarian implications should the current GMO vilification efforts succeed in driving GM technology out of agriculture. Global agricultural productivity increases are even now lagging behind population growth, and that is without figuring in the increasingly negative impacts of climate warming.    Now the future lies in agricultural intensification. We will need to produce more crop per drop of water and square meter of land. Genetic modification of plants, in which the United States currently leads, will be the key to feeding the nine or ten billion people we expect for dinner in just a few decades. We cannot afford to discard the best methods we have ever invented to continue growing the food supply and doing it more sustainably.    Thank you very much.</t>
   </si>
   <si>
-    <t>Lidback</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lidback. Thank you. Chairman Conaway, Ranking Member Peterson, and other Members of the Committee. Thank you for inviting me here today. I am here on behalf of Agri-Mark Dairy Cooperative, the National Council of Farmer Co-ops, and the National Milk Producers Federation.    My husband and I have a small 50 cow dairy located in northeast Vermont. We also make extra hay to sell. We raise Jersey steers to process and sell beef locally, and we market a small amount of composted manure. We have two young boys, ages 3 and 2.    My husband and I are both proud to be first-generation dairy farmers. We believe in the science and capability of biotechnology and its role in protecting the sustainability of our farm. Biotech crops are essential to treating our cows and calves. We feed both GMO corn and soy products year round along with pasturing, a grass-based silage, and hay.    I believe that biotech varieties improve efficiency and productivity of farming. In my written testimony, I mentioned that I could not find a non-GMO option available to me, but I have since found it. The non-GMO feed would cost $589 per ton. The same conventional feed we currently feed is $333 per ton. On our small farm, we purchase about 16 tons of grain per month, and if you do the math, that is a difference of about $4,100 a month or $49,000 a year. If there are any dairy economists here, this is the equivalent of $1,000 per cow on our farm. I don't see how we could profitably farm with those increased feed costs.    As a small farm just starting out, we are constantly exploring new opportunities to grow our business. One of the things we have been looking at recently is growing our own corn and alfalfa. In our short growing season, genetically engineered seeds offer the best options for us. Incidentally, over 97 percent of the corn grown for silage in Vermont is biotech crop.    I personally believe that there is room for many different styles of farming. I also believe that biotechnology will play a major role in our ability to feed a growing world and to make improvements on our own individual farms. Certainly, as a dairy farmer, increasing feed costs would have a devastating impact on my business. But beyond our farm gate, we know that the impact would be just as brutal. In my area of rural northeast Vermont, 80 percent of the children in elementary school receive free reduced-price school lunches. It is their families who would suffer the most from price increased caused by mandatory biotech labeling.    As a mother and a consumer, I do not to purchase organic or non-GMO food in the store since I would be paying more with no added nutritional, health, or environmental benefits. I firmly believe the food I feed my two growing boys is safe.    You must be aware that recently my State of Vermont passed a mandatory GMO labeling law. In New England, it is very easy to cross borders for various reasons, such as grocery shopping. If the Vermont labeling law is activated, there will likely be one label on food in Vermont and another on the exact same food in New Hampshire, raising questions about whether or not the product is actually the same.    Furthermore, the Vermont law exempts meat and dairy from being labeled. Other states may not exempt those products as they consider their own GMO labeling bills. Doing so will affect my ability to market my USDA certified Jersey beef across state lines. This serves no one's interests, not consumers, not farmers, not food producers.    I am happy to speak up for our right to farm in whatever way we choose, which in our case, includes biotechnology and the use of GMOs. It is important to continue the conversation about the opportunities and challenges we face as modern-day farmers and parents. When I have one person or ten people reach out to me for a question or appreciating my practical perspective from the farm, then I have succeeded.    Sometimes this isn't an easy task. As the Chairman mentioned, I testified at a Subcommittee hearing on this very topic last summer and received some very rude comments from total strangers on social media and phone calls from them in the middle of the night.    It was not always the most pleasant experience, but being a dairy farmer, I am used to having to do unpleasant jobs from time to time. Even with those negative encounters, or maybe because of them, I was eager to come back and share my experiences today. I am proud of how far the American farmer has come, just as I am proud of how far we have come on our own farm. If my sons choose to continue in farming, I want to know that my husband and I have provided them with a firm foundation to build on.    Thanks again for the opportunity to be here with you today.</t>
   </si>
   <si>
-    <t>Clarkson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clarkson. Chairman Conaway, Ranking Member Peterson, and other Members of the Committee, thank you for inviting me here today. I am the President of Clarkson Grain Company located in Cerro Gordo, Illinois. Clarkson Grain was founded in 1974 by the Clarkson family, pioneering direct delivery marketing to link farmers directly to end-users. From that beginning, we have grown into a grain, oilseed, and ingredient supplier to manufacturing companies making food and animal feed with clients around the world. The company procures its raw materials, primarily corn and soybeans, from farmers in the United States and Canada. We operate our own commercial storage, cleaning, and handling facilities, a barge station, rail sidings. Our products include corn and soy flours, masa, lechitin, whole grains, organic, non-GMO and GMO.    United States farmers excel in delivering the lowest cost agricultural products with a grade standard acceptable to clients. Since our inception, we have segregated corn and soy by variety and market distinction to realize greater value for producers and end-users. Buyers of these identity preserved grains are now asking for features that guarantee their access to particular markets such as GMO specific, non-GMO, and organic. Such buyers range from small family companies to the largest food manufacturers. Shipments range from a small bag to 55,000 ton vessels.    These market preferences are increasingly defining both our domestic and international markets. To secure corn and soy sought by these buyers, we contract with farmers before planting to get particular varieties raised in accord with buyers' wishes. We secure grower cooperation by paying premiums.    Our goal is simple: a happy client. We are not in the business to win a scientific or political argument. We are in business to please clients seeking legitimate product distinctions. We don't tell clients what they should want. We ask them what they want and try to get it for them.    As an identity preserved (IP) merchant, Clarkson Grain is not at all opposed to the development and commercialization of GMO crops. Producers and their supply chain partners however need to recognize that production and handling of any crop has to be conducted in such a way that preferred market access is recognized and honored. Neighboring farmers must have the ability to serve their preferred markets, whether GMO, non-GMO, or organic. Market access and choice are critical to this. Wherever you fall on the GMO spectrum, it is clear to me as an ingredient supplier that an increasingly significant percentage of consumers want additional transparency in labeling. These consumers, the GMO sensitive, have certainly proved themselves to be a significant and vocal voice for transparency in labeling.    The cost of disregarding this voice is increased social conflict, expensive political battles, and uncertainty provided by prolonged court cases. For farmers who use GMOs, this process prolongs the difficulty for the biotech industry to bring traits responsibly into the market. Everyone would win if we could lower the temperature and manage the conflict over GMO technology.    One critical way to lower the temperature is through a rational uniform national standard for the labeling of food that is not produced using GMO traits. Such an action is in the fundamental interests of both consumers and farmers. Consumers have a right to exercise their choice and avoid. Farmers have a right to take advantage of this new market. The creation of a standard could be accomplished through a mandatory labeling scheme, but it is my belief that a more appropriate approach is through a voluntary labeling program. I believe that such approach would be less contentious, less adversarial, and less expensive.    I believe we are in a similar place to where we were with emerging organic market in the early 1990s. At that time differing state standards for organic products were emerging. The result was consumer confusion. Independent companies jumped in. More confusion. Each one was saying their standard was better than the next. So it was a negative for the entire sector.    Once the organic sector settled on a uniform national definition responsibly overseen by the USDA, consumer confidence returned and served as the fundamental rationale for explosive growth.    It is my belief the non-GMO market would also grow if it had a uniform national standard overseen by the USDA. The USDA has a world-class reputation of managing process-verified programs. It seems to me to be straightforward. Let Congress establish a uniform standard, let USDA oversee it, step back, and let the marketplace work as it does.    To sum up, I want to offer one more rationale for establishing a uniform standard. Labeling drives other activities along the supply chain such as seed production. Many producers struggle with a lack of appropriate non-GMO seed. For all these pieces to work together within a reasonable time frame, farmers must have access to an adequate supply.    So in closing I ask for several things. First, Congress to support a farmer's freedom to produce for his preferred markets without being dominated by his neighbor's market decisions. I ask Congress to support through adequate funding, research in non-GMO corn and soy varieties. I ask Congress to support a farmers' choice of hybrids or quality attributes, GMO presence or absence, or organic or non-organic. I ask Congress to help those of us in the countryside to always balance and respect a producer's production decisions as they provide a safe and abundant food supply for the world's needs.    Thank you. I would be happy to answer any questions later</t>
   </si>
   <si>
-    <t>Dempsey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dempsey. I want to thank the Committee, Chairman Conaway, and Ranking Member Peterson for holding this hearing to provide a balanced review of one of the most critical issues facing the food industry today, the labeling of genetically modified organisms, or GMOs.    My name is Tom Dempsey. I have served as the President and Chief Executive Officer of the Snack Food Association since 2013. Prior to joining SFA, I was the President of one of the largest privately owned snack brands in the United States. We represent over 400 companies in the snack industry. My members include both billion-dollar multi-category companies and small family-owned businesses in the second and third generation of management. More than \\1/2\\ of SFA members have sales of less than $100 million a year, and many are the primary employers in their communities.    Mandatory GMO labeling would impact nearly every aspect of my members' businesses, upping costs by requiring increased product inventory, added complexity for packaging and distribution processes, and extensive new regulatory and training requirements. Absent a Federal solution, manufacturers will have essentially three options to comply with a state GMO labeling law: redesign their packaging, reformulate products so that no labeling is required, or halt sales to that state. Each option is difficult, costly, time-intensive, and at worst, could eliminate jobs and consumer choice in the marketplace. Smaller companies may not have these options at all.    A patchwork of mandatory GMO labeling laws would pose significant burdens on the manufacturing process itself. They would require separate storage for GMO and non-GMO products throughout the entire supply chain beginning with the farmer and extending through the various stages of production and distribution. Aside from new administrative and recordkeeping burdens, snack makers would be forced to clean and boil the sheeting, baking, frying, and seasoning lines between GMO and non-GMO production runs with extensive time costly delays.    Duplicative film labeling for the same stock keeping unit or SKU assigned to each product line is also a problem. Film, the industry's term for snack bag packaging, would need to be changed mid-production and two separate inventories of the same finished product must be kept. If one, ten, or 25 states enact different GMO labeling laws, this process would become even more burdensome and difficult to comply with, particularly from an interstate commerce perspective.    Significant lead times and costs would also go into bag changes. The cost in plate charges, new film, and administrative oversight could be more than $750,000 for 800 SKUs, and the process could take 20 to 26 weeks.    GMO and non-GMO producers must continue to be segregated by state, from the factory to the grocery store, resulting in increased distribution costs and heightened opportunity for mistakes.    To be clear, the hardest hit by this will be one-plant operators with a single line of production. These costs could put family-owned businesses out of business and increase consolidation in the industry.    While it is sometimes assumed that companies could remove GMO ingredients from their products, this is unrealistic because the availability of non-GMO crops, as you have heard, is limited. Over 80 percent of the corn, cotton, and soybean crops in the United States are produced with biotechnology, all of these products, which are staple items in the snack food production.    Our members will not have the opportunity to increase their contracts with farmers or mills for non-GMO corn, for instance, for over 2 years. Transitioning to GMO-free production will not happen overnight from genetically engineered plants.    Some manufacturers may choose to end distribution in states that require GMO labeling resulting in fewer product options for consumers and causing a ripple effect in the grocery industry. Even if manufacturers notify grocers of their intent to stop selling in a state, manufacturers could run the risk of being fined if retailers do not comply or if mistakes happen in the distribution process.    Fewer players in the aisle could mean less incentive to keep quality high and prices low. Fewer products could disproportionately cause job losses for some in the distribution chain.    Ultimately, a patchwork of state GMO laws will hit consumers the hardest in result in either increased cost at the grocery store or less availability of products on store shelves. Current Federal law mandates food labels for safety and nutritional purposes, and because GMOs as you have heard have proven to have no material difference than non-GMOs, there is no food safety or nutritional difference that requires an additional label. Going down a path which calls for mandatory GMO labels sets a bad precedent for future calls for mandatory labels for issues that are not related to food safety or nutrition.    Consumers already have the option to purchase non-GMO foods, and these options continue to expand. For over a decade, both the USDA's National Organic Program and the independent Non-GMO Project have certified that foods are organic and GMO-free respectively.    Many SFA members have already made the significant investment in marketing decisions to display these voluntary labels. Forcing companies to re-label more than 80 percent of their products does nothing but add cost, confusion, and may limit the choices.    SFA does not have a single member company that manufactures, distributes, and sells in just one state which makes a state labeling law incredibly complex. Multiply these challenges by five, ten, or 25 states and an insurmountable burden is placed on the supply chain. SFA supports a voluntary labeling standard which eliminates the proposed patchwork of state laws and allows the market forces that are already in place to continue to inform the consumer. As more and more states continue to pursue different mandatory GMO labeling laws, manufacturers and consumers alike need the consistency of a Federal standard, and we need it urgently.    Thank you for your time and consideration.</t>
   </si>
   <si>
-    <t>Policinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Policinski. Thank you. Thank you, Chairman Conaway, Ranking Member Peterson, and Members of the Committee. Thank you for holding today's hearing on the costs and impacts of mandatory biotechnology labeling laws.    I appreciate the opportunity to testify on this important issue. I am Chris Policinski, President and CEO of Land O' Lakes. I also serve as Chairman of the National Council of Farmer Cooperatives and am a Board Member of the Grocery Manufacturers Association.    Land O' Lakes, based in Arden Hills Minnesota, is a farmer-owned cooperative, meaning it is owned, governed, and controlled by farmers and local agricultural cooperatives. Land O' Lakes touches more than 300,000 farmers across the country making us well-positioned to understand the benefits of biotechnology and the impact of measures designed to mandate the labeling of GMO products.    Biotech crops have been around for 2 decades and provide extraordinary benefits to farmers and consumers: higher crop yields per acre, less tilling of the land, decreased use of natural resources such as water and land, reduced use of insecticide, better soil quality, and lower consumer prices are just some of the benefits GM crops provide.    Despite these benefits and the proven safety of GMOs, some are pushing for states to pass laws that would mandate the labeling of GMO foods. We are told this is about consumer choice. The consumers already have these choices and many others. Some choose to pay a premium for food that is produced by certain methods, such as organic or does not contain certain ingredients, such as those that are gluten-free. Others prioritize affordability, accessibility, convenience, or taste. Voluntary labeling currently presents all of these choices in the marketplace, and that is the model that should exist for GMO labeling as well.    Mandating GMO labeling runs contrary to the essential purpose of government-mandated labeling, which is to provide consumers with accurate and relevant information regarding the safety of the foods they eat. Every major health and regulatory organization has found that GMOs are as safe as any other food and as such do not require any special labeling.    Mandated GMO labeling is an effort to stigmatize a form of technology in an attempt to drive it out of the marketplace. You don't have to take my word for it. Two months ago an activist association published an article admitting that the push to enact state-wide GMO labeling is part of a larger effort to drive GMOs off the market. In addition to stigmatizing biotechnology, a state-by-state patchwork of mandated food labeling laws would be a logistical nightmare creating dozens of different standards, different definitions, and different exemptions.    Fortunately, Congress has the authority and the responsibility to protect the free flow of goods across state lines. Uniformity in our nation's food labeling ensures consumers have consistent, accurate information on dairy, poultry, meat, and other foods. Under Federal preemption, Congress can create a voluntary uniform national solution to the labeling of food products derived from ingredients using biotechnology. The value of this approach is that it not only respects a consumer's right to choose but it also respects a farmer's right to choose to use a safe, proven technology.    Stigmatizing GMO foods through a patchwork of state labeling mandates or even mandatory Federal labeling jeopardizes innovation and threatens the future of development and use of technology in agriculture. As a result, farmers will have fewer choices of what to plant. We will see higher costs due to crop segregation, lower yields, a decline in productivity, and an increased environmental footprint. That is dangerous for everyone.    And this threat is real and imminent. There is currently some form of GMO labeling legislation pending in over \\1/2\\ of our state legislatures, and Vermont's GMO labeling mandate is scheduled to take effect next year. That is why I strongly urge Congress to enact a common-sense law that will provide farmers and consumers with the clarity and certainty needed for meaningful, voluntary food labeling.    Last year our company supported the Safe and Accurate Food Labeling Act, and we understand that similar legislation will be introduced soon. Updates to the bill from last year may include the creation of a voluntary, non-GMO verification program run by the U.S. Department of Agriculture. We would support such a provision which would ensure that consumers get accurate information while preserving choices available to shoppers and farmers.    Thank you again for the opportunity to testify before this Committee. I look forward to working with each of you this year to pass a common-sense solution that meets the demands and expectations of the American people.</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman. It is a great panel, and I want to commend Ms. Lidback for your work and also a young couple starting in the agriculture industry, that is commendable, and you say you have two kids, 2 and 3. Really, if more kids could grow up on the farm, it would be great for our country I believe.    I want to kind of look back for a little perspective. Back in 1950, my understanding is the national corn yield was 50 bushels to the acre. In 1975, 40 years ago when I started farming, my goal was to have 100 bushels an acre. And now we are pushing 200 bushels an acre here nationally. Anything under 150 bushel would be considered a disaster. I know Land O' Lakes is shaking his head there.    And it was pointed out, this change from 1950 to 1975 where we doubled the production, I always contend it is from figuring out soil nutrient fertility, also hybrid selection, natural hybrid selection, and then I would contend from this period forward now where we have pretty much doubled the yield again, it is because we have been able to select the genetics in a faster way like Dr. Federoff says. We have been doing it for thousands of years or at least from our perspective, 100 years or so. So we have been able to identify those genes and do it exponentially in the lab. So it is really no different. So that is one of the reasons why the scientists say it is safe, because we know what those genes are. We can identify them. But the benefits, we are growing--we are having 14 billion bushels of corn crops a year now annually on less acres. Every year it is less acres. So it is really a food security issue. The American farmers have provided the food for this country, and we also export \\1/3\\ of it. It is a food security yield but it is about yields. And if we didn't have what has happened in the last 25 years of this yield, we would be having food shortages. Do you agree with that, Mr. Policinski?</t>
   </si>
   <si>
@@ -199,9 +169,6 @@
     <t>400263</t>
   </si>
   <si>
-    <t>James P. McGovern</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you, and thank you all for your testimony. Let me begin by saying everybody is reading from the same sheet of music here, but nobody here is in favor of mandatory GMO labeling, am I correct? If we are going to have a thoughtful discussion on this, we ought to have more of a diversity of opinion at a hearing like this because it is important to hear all sides of the subject.    But let me begin by saying that I am a believer in science. I rely on the scientists to give me informed information. That is why I believe in climate change as well. That is a subject for another hearing. But the point of the matter is that there is great value in our sciences. So I am not here to demonize GMOs or the technology behind them. I don't think anybody should be fear-mongering about GMOs. I don't think anybody should be threatening anybody who wants to produce GMO crops or whatever. We ought to be able to have a more kind of a measured conversation on this.    But I do believe in transparency, and I do believe people ought to have a right to know what they want to know. The consumers ought to have the right to know what they are eating and what they are feeding their kids, and how they use that information in their food choices is up to them, not up to us, but up to them. There is great confusion with the labeling system now. I mean, I saw a poll from Consumer Union that found 60 percent of consumers believe that products that say natural means non-GMO when in fact that is not the case. More consumers think natural means non-GMO than think organic means non-GMO.    The current system, and even kind of a voluntary system is lacking. We were told that changing labels will cost food companies. Food companies change their labels all the time. It is a false argument to say that labeling requirements will drive up the cost of food. I do believe there ought to be a national standard because I do understand the patchwork of various state initiatives is not in anybody's interest.    In response to the idea that if a product said, ``contains GMOs'' or whatever the label would be, that somehow that would discourage people from buying those products, you have 64 country around the world already require labeling of GMO foods. Brazil, a country whose consumption patterns are similar to those in the United States, has required GMO labeling since 2001. And from what I can tell, there has been no significant change in consumption patterns.    But let me just raise one point here. I am deeply troubled by Friday's announcement from the World Health Organization's International Agency for Research on Cancer, that glyphosate, the herbicide most commonly used on GMO crops, is a probable human carcinogen. Now, IARC is made up of some of the most renowned scientists in the world, and if they are saying that glyphosate is a likely cause of cancer, I mean, that may be something that people want to know.    So I guess my question is, because GMO corn and soybeans, for example, are designed to withstand glyphosate, the use of that herbicide has grown dramatically in recent decades, and given Friday's announcement, I mean, don't you think people should have the right to know how their food is grown and make their own decisions? Anybody wants to----</t>
   </si>
   <si>
@@ -229,9 +196,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thank you, Mr. Chairman. I appreciate the hearing, and thank you to the panelists, too, for being here today.    I believe that people have a right to know what it is that they are consuming, and I also feel very strongly about science and recognize the fact that we have avoided famine, because as was mentioned, we have modified over the years. So I recognize that as well.    I represent 11 counties in Upstate New York. I am a fervent and a strident advocate for my farmers. Ensuring the viability of our family farms is critical, a principle that we can't drop as we move forward reconciling right-to-know and science. And so I thank Ms. Lidback for being here today, and thank you for your testimony.    I also have tremendous faith in the American people that empowered with information--I guess I don't agree with some of the assessments that they would change their consumption habits. I think that they will make good choices. And so I just want to put that on the record, too. As it relates to right-to-know, if we thought about it more broadly, we get fixated on labels immediately. I would be interested in the panel's response to the possibility of right-to-know with an approach that provided details on modification on a website where individuals could go to get information. I would be curious to know what their reaction would be to that technique.</t>
   </si>
   <si>
@@ -256,9 +220,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman, and I have for the record a report that I would like to enter from Cardinal Peter Turkson, President of the Pontifical Council for Justice and Peace.    The Chairman. Without objection.    [The document referred to is located on p. 79.]</t>
   </si>
   <si>
@@ -286,9 +247,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Thanks to the panel for being here today. Dr. Federoff, are the changes that have been made in the lab, treatment of plants, changed their properties any different than the way we have been doing it for thousands of years?</t>
   </si>
   <si>
@@ -337,9 +295,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Ms. Lidback, in your testimony you mentioned that the marketplace is already sorting out some of the non-GMO labeling without legislative mandates. I wanted to just get your feeling and your perception and that of your peers I suppose on the Whole Foods discussion, that in 2018 they plan to have all their products in the United States and in Canada labeled.    Can you give the Committee your views on these kind of private-sector driven initiatives?</t>
   </si>
   <si>
@@ -382,9 +337,6 @@
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and once again, I appreciate the panel here and basically the comments that you have had about this particular issue. One of the things, Dr. Federoff, that I have been sitting here thinking about is as far as the testing of these products. Are there any risks for consumers to choose organic foods?</t>
   </si>
   <si>
@@ -463,9 +415,6 @@
     <t>412629</t>
   </si>
   <si>
-    <t>Mike Bost</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman. First off, we probably went down this earlier, but I have been bouncing in and out of the room. Mr. Policinski, I would like to know if I can what your company is already--because Vermont has already passed a law. Are you preparing already and whether those costs that you are seeing and everything for one state and how you are going to handle it. Because I know we have talked about three different options that could be available. And where are you going with that at this time?</t>
   </si>
   <si>
@@ -496,15 +445,9 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman, and thank you all for your testimony. I think it is appropriate we are here. Tomorrow, March 25, would have been the 101st birthday of Minnesota graduate and researcher, Norman Borlaug, so the discussion we are having falls directly into that. And I am appreciative of all of your time and effort.    I would point out, and we are trying to get to the heart of this, our responsibility in Congress and our responsibility I would argue each of you is to define a problem, gather the information, and then make correct assumptions to that, and that is what we are trying to get at.    January 2015 Pew Research Center study came out and showed that 89 percent of scientists believe that GMOs are safe, that 37 percent of the public did. And I am going to come back to this. Yes, it is the 800 pound gorilla in the room, but the science and the preponderance of the evidence on this seems to warrant where we are headed. And we can get into this issue with Norman Borlaug's position, with 12 billion people on the horizon for 2100, with the idea of how we are going to feed these people, but the problem we have in this place is you can't be selective when the preponderance of the evidence shows something. And we do that. And there better be some soul searching on both sides of the aisle on this, as to let the science and the research drive us to come up with conclusions that work. And it is important, both for consumer safety and sense of fairness.    The point was brought up, Mr. Clarkson's point about ratcheting down the rhetoric is exactly it. But while I would make the argument, and I respectfully say, that the Chairman will run his Committee as he wants to. The questions that Mr. McGovern brought up, there should be some dissenting voices here or we end up in the situation like the outlandish situation in Florida where state officials can't talk about climate change. Well, you give a perception that there is something you don't want people to talk about. The evidence is clearly here that this is a way to feed people. It always has been. It is as much about Mesopotamia as it is about Monsanto, and that is the discussion that we have to have and have fairly so that we can make good decisions.    And I am just troubled that we will go down a road. And there are some interesting things. Dr. Federoff, you brought up a good point. This one has always gotten me a little bit. Orange juice, for example, the Florida citrus folks, and they want to sell them. They label no GMOs on there. There are no GMO oranges. But here is the thing. There may need to be soon with the greening, the citrus greening disease, that is coming. So they may regret that decision that we are going to end up with those eventually, because of this new entrance into the environment.    So I applaud all of you for being here. I would ask my colleagues, this gives us an opportunity to reset on some of these things. You can't say, wow. The preponderance of the evidence and the scientific consensus is nearly whole on this issue and then walk to another committee room and have the exact same folks. Now, I get it. There is 11 percent of scientists here. I bet you they are not egronimous that are part of that. And to bring in someone else in an unrelated field and use that, that is the outlier that Dr. Federoff said, and we are going to base our decisions on that. Because I would make this argument here as feeding the world's population, continuing to advance, continuing to do. The things you do is feed, clothe, and power the world, is going to involve a simultaneous discussion on climate change as it deals also with GMOs. And I wish we would have the maturity, the ability to be able to do what you all have clearly laid out today.    And Ms. Lidback, I apologize for those people who would question you because you have the audacity to talk about the science. Trust me, it happens on other issues, too, unfortunately. But your willingness to come here and speak about this and talk about it, and the powerful thing here, too, just hearing this, the organic folks can make three times more. Well, good for them if they are going to be able to. And that is where we are at. We are not trying to stop that.    But it is an important point and an important discussion that we cannot drive policy, whether it is on labeling or how we go about things that is not based on the evidence, that is not based on research, because that will lead to bad outcomes all the way around.    So I want to thank each of you for being here. I want to ask my colleagues to have the courage to discuss these things as they are and then to come up with good solutions. And that shouldn't be all that difficult. The good news here is that our producers continue to be the most productive in the world. Our researchers continue to be the most innovative, and we are able to provide the most abundant, safest, affordable food supply in the world, and we can do that around the world. So this is an important discussion. It is broad, it is important, and I applaud each of you for continuing to bring it to the forefront and hopefully we will get a good solution for you and for the consumers. Thank you.    The Chairman. The gentleman yields back. Mr. Emmer, for 5 minutes?</t>
   </si>
   <si>
-    <t>Emmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman. And first to the panel, thank you for being here. And I apologize. I had to step out and come back. This is quite an operation in this place. You have several meetings all at the same time in different buildings, and there must be a better way to run the train station.    Be that as it may, I respect your time. Listening to my colleague from Minnesota talk about there should be dissenting voices in the room, most of us would agree that if the world would just agree with our position, it would be a much better place to live in. But that doesn't happen. And somebody can correct me, but it was Bobby Kennedy that said something to the effect that if you can get the American public, 80 percent of the American public to agree on anything, that should be considered unanimous. And in this case, when you have 90 percent of the science out there agreeing, that is pretty close to being unanimous.    I want to go at this very quickly from a different--again, forgive me if somebody has already done this. I wasn't here. So please be patient with me. I want to go at it from the specific costs and break it down by level.    Mrs. Lidback, you are running a dairy operation. You have costs that are going to be added on for--you talked about the inputs when I was here earlier. You were talking about the cost of feed. Aren't there other costs in terms of having to manage and record, get inspections, certification. Have you talked about those already today?</t>
   </si>
   <si>
@@ -547,9 +490,6 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman. I think this is not only a critical issue here in our country but also as it relates to the labeling issues, a critical issue as we negotiate these trade agreements, both with the European allies and as well as in Asia.    I, Mr. Schmidt, was interested in your comments earlier on in terms of the polling sampling that you have taken and undergone, and what it really made me think about--and Dr., is it----</t>
   </si>
   <si>
@@ -604,9 +544,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, and Mr. Costa, being a veterinarian, large animal practitioner that earned a living on the south end of a north-bound horse or cow, it wasn't manure. It was fertilizer until it hit the ground.    I appreciate you all being here, and we as the people in government--because government is a non-entity. It is only as good as the people that are involved in it, in all branches of it, that we need to do a better job on educating both us and government and the public on educating people and in public venues to get the best, the current, and the correct information out to the public that is updated and is based on peer-reviewed science, and it is stemming from accurate research. And we also need to do a better job of making current the information and policies on a website of what a GMO is and what it is not and keep agendas or politics out of it and let the facts speak for themselves.    Dr. Federoff, if you could take us briefly through the process of taking a genetically modified product from the beginning to the market in less than a minute, I would be really appreciative if you could. But just the research that goes behind that before it is approved.</t>
   </si>
   <si>
@@ -653,9 +590,6 @@
   </si>
   <si>
     <t>412607</t>
-  </si>
-  <si>
-    <t>Alma S. Adams</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chairman, and thank you to our guests today. There has been a lot of confusion over what qualifies as a label for food that contains ingredients derived from a GMO. Consumers I believe deserve to know what is in their food, but it is also necessary that FDA implement regulations to ensure that the labeling of GMO products is fair and standardized and transparent. Market-driven labeling ensures that the information they demand about the food being sold is clear and accurate without the confusion of dozens of different labels.    Mr. Clarkson, your testimony indicated that the best way to support consumers is through a national standard that includes a voluntary labeling program. So if the program is voluntary, how long would you expect for retailers and producers to begin participating in the program?</t>
@@ -1093,11 +1027,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1117,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1143,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1169,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1195,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1221,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1247,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1273,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1299,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1325,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1351,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1377,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1403,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1429,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1455,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1481,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1507,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1533,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1559,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1585,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1611,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1639,11 +1531,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1663,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1691,11 +1579,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1715,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1741,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1769,11 +1651,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1793,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1821,11 +1699,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1845,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1871,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1897,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1923,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1949,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1975,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" t="s">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2001,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2027,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2053,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2079,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" t="s">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2105,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2131,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2157,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2183,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2209,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2235,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2261,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2287,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2313,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2339,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2365,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s">
-        <v>80</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2391,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2417,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2443,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2469,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2495,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2521,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2547,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2573,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2599,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2625,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2651,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2677,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2703,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2729,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2755,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2781,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2807,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2833,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2859,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2885,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
         <v>89</v>
-      </c>
-      <c r="G71" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2911,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2937,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2963,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
-      </c>
-      <c r="G74" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2989,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3015,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3041,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3067,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>106</v>
-      </c>
-      <c r="G78" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3093,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3119,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3145,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3171,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>106</v>
-      </c>
-      <c r="G82" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3197,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3223,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3249,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3275,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3301,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
-      </c>
-      <c r="G87" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3327,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3353,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
-      </c>
-      <c r="G89" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3379,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3405,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
-      </c>
-      <c r="G91" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3431,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3457,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3483,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3509,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
-      </c>
-      <c r="G95" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3535,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3561,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G97" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3587,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3613,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
-      </c>
-      <c r="G99" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3639,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3665,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
-      </c>
-      <c r="G101" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3691,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3717,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3743,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3769,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3795,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3821,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3847,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
-      </c>
-      <c r="G108" t="s">
-        <v>122</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3873,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3899,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3925,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3951,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3977,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4003,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>148</v>
-      </c>
-      <c r="G114" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4029,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4055,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
-      </c>
-      <c r="G116" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4081,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4107,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4133,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4159,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4185,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4211,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4237,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>159</v>
-      </c>
-      <c r="G123" t="s">
-        <v>160</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4263,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4289,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4315,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4341,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4367,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4393,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4419,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4445,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4471,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4497,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4523,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4549,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4575,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>162</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4601,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>176</v>
-      </c>
-      <c r="G137" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4627,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4653,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G139" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4679,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4705,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>176</v>
-      </c>
-      <c r="G141" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4731,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4757,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>176</v>
-      </c>
-      <c r="G143" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4783,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>176</v>
-      </c>
-      <c r="G144" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4809,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4835,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>176</v>
-      </c>
-      <c r="G146" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4861,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4887,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>176</v>
-      </c>
-      <c r="G148" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4913,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4939,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>176</v>
-      </c>
-      <c r="G150" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4965,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4991,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5017,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
-      </c>
-      <c r="G153" t="s">
-        <v>177</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5043,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>195</v>
-      </c>
-      <c r="G154" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5069,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5095,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>195</v>
-      </c>
-      <c r="G156" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5121,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5147,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>195</v>
-      </c>
-      <c r="G158" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5173,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5199,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5225,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>195</v>
-      </c>
-      <c r="G161" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5251,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5277,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>195</v>
-      </c>
-      <c r="G163" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5303,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5329,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5355,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>195</v>
-      </c>
-      <c r="G166" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5381,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5407,13 +5009,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>195</v>
-      </c>
-      <c r="G168" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5433,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5459,13 +5057,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>195</v>
-      </c>
-      <c r="G170" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5485,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>212</v>
-      </c>
-      <c r="G171" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5511,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5537,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
-      </c>
-      <c r="G173" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5563,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5589,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>212</v>
-      </c>
-      <c r="G175" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5615,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5641,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>212</v>
-      </c>
-      <c r="G177" t="s">
-        <v>213</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5667,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5693,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5719,13 +5297,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5745,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5771,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5797,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,39 +55,75 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Collin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Thank you, Mr. Chairman, and thanks for holding this hearing. This is an issue that I hope that we can find a way to address because if we don't, we are going to have 50 states with 50 different labeling programs, and that is just not going to work. If we don't do something to stop this, we could end up with something similar to what is going on right now in California with their egg standards.    Consumers have expressed their interest in knowing more about where their food comes from, and that is a good thing. But when it comes to labeling, we need to be able to find a smart way to balance this consumer demand, what we know about the safety of the foods that our farmers produce. Done correctly, I think we can find a workable solution.    The Energy and Commerce Committee has most of the jurisdiction here, so at this point our hands are a little bit tied. But I do think it is important for us to move forward and learn more about the impacts some of these state attempts at labeling genetically engineered food and food ingredients are going to have.    So I look forward to hearing from our witnesses and thank you for holding the hearing.    The Chairman. I thank the Ranking Member. I appreciate that. I recognize Subcommittee Chairman Rodney Davis for his statement.</t>
   </si>
   <si>
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and thank you to all the witnesses that are here today. And Mr. Chairman, thank you for holding this hearing on the costs and impacts of the mandatory biotech labeling laws. And I would like to welcome one of my constituents who is on the panel, Mr. Lynn Clarkson. I am very glad you are here representing the small town of Cerro Gordo very, very well.    Clarkson Grain, your company, turned 40 just last year, supplies grain to food manufacturing, animal feed industries. His products include corn, whole grains, and non-GMO grains and oilseeds. I appreciate your testimony about respecting all viewpoints and lowering the temperature in this very heated debate.    I have two distinct memories from the Subcommittee hearing that I shared last year that Ms. Lidback was a part of. First of all, we discussed the needs of biotechnology, and it helps us feed a growing population, reduces negative impacts on our environment, and also helps combat plant and pest diseases. But the rhetoric, as Chairman Conaway said, became pretty charged after the hearing. I was disappointed by this rhetoric and misinformation and the personal attacks leveled not only at you but to those who were part of the hearing, including me.    Thanks for coming back. I know you did receive some rude comments and some bullying on social media, and I really appreciate hearing your perspective as a dairy farmer, and as a father of three children myself, I appreciate hearing your perspective as a mother.    Last, on the right-to-know argument, consumers can already find out information when they are at the grocery store. Food that is labeled as USDA certified organic does not contained genetically modified ingredients. I want to read something from The New York Times editorial just a couple of years ago. ``Consumers can already find products free of GMO ingredients with labels voluntarily placed by the manufacturers. For those who want to avoid such ingredients, the surest way is to buy products certified as organic under Federal standards.'' Now, this is The New York Times, not necessarily a hotbed of conservative rhetoric on their editorial board.    So with that, Mr. Chairman, I yield back.    The Chairman. The gentleman yields back. Thank you. I now recognize the Ranking Member on the Subcommittee, Ms. DelBene, for her statement.OPENING STATEMENT OF HON. SUZAN K. DelBENE, A REPRESENTATIVE IN </t>
   </si>
   <si>
     <t>412505</t>
   </si>
   <si>
+    <t>DelBene</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. DelBene. Thank you, Mr. Chairman. I appreciate you holding this hearing, and I want to thank all of the witnesses for being here today.    As the Ranking Member on the Subcommittee, this is an issue I hear about very often, not only here, but also in my district back home in Washington State. In fact, Washington State was among the states which recently voted on a GMO labeling initiative, and one of the biggest takeaways for many of us from that initiative, as well as this debate generally, is that there needs to be more of a dialogue and more education done on all sides.    I certainly agree that consumers have a right to know what they are eating, and I also believe that we need to be clear and take a science-based approach when we are discussing GMOs. Just as many of us implore folks to look at the science behind climate change, for example, we can't pick and choose. We need to understand the science and its findings, including in this case.    Genetically modified doesn't mean just one thing or just one company, and as someone who started their career in biomedical research, I understand that this technology has the potential to provide benefits to consumers. However, we also need to ensure that we are having an open conversation about its impacts and its challenges. This is often an emotional argument, and it is my hope that moving forward we can have it be more of a fact-based open discussion on all sides.    I am looking forward to the testimony of our panel today and am hopeful that we can move closer to a workable solution as a result for everyone. So thank you again, Mr. Chairman, for this hearing, and I yield back.    The Chairman. I thank the gentlewoman. The chair would request that other Members submit their opening statements for the record so that witnesses may begin their testimony and to ensure there is ample time for questions.    I would now like to welcome to our witness table the following witnesses: We have here Mr. David Schmidt, President and CEO of the International Food Information Council here in D.C. We have Dr. Nina Federoff, the Senior Science Advisor, OFW Law Firm here in D.C. We have Ms. Joanna Lidback, owner of The Farm at Wheeler Mountain, on behalf of Agri-Mark Dairy Cooperative, the National Council of Farmer Cooperatives, and the National Milk Producers Federation from Westmore, Vermont. We have Mr. Lynn Clarkson, President, Clarkson Grain Company at Cerro Gordo--is that close enough--Illinois. Mr. Thomas Dempsey, CEO, Snack Food Association in Arlington, Virginia, and Mr. Chris Policinski. I butchered that, Chris. Sorry about that. President and CEO, Land O' Lakes in Arden Hills, Minnesota.    Mr. Schmidt, begin when you are ready, please.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schmidt. Thank you, Chairman Conway, distinguished Members. I am David Schmidt, President and CEO of the International Food Information Council and Foundation. We effectively communicate science-based information on food safety and nutrition issues to health professionals, journalists, educators, government officials and consumers. We are fortunate to receive support for our programs from leading food, beverage, and agricultural companies, but I must clarify that we don't represent those industries.    Last year, IFIC conducted the 2014 Consumer Perceptions of Food Technology Survey. It was our 16th such survey since 1997. The survey polled 1,000 adults who are reflective of the U.S. population, according to the U.S. Census Bureau. Our survey begins with open-ended questions, which are more reliable when it comes to taking the real pulse of consumers than surveys with a small number of carefully worded questions designed to provoke concerns.    When it comes to food labels, the results show that biotechnology, or even the phrase GMOs, is not a top-of-mind concern for the vast majority of consumers. Following the open-ended questions, we get more specific about biotechnology and genetic engineering, but please note that we do not use the term GMO for two major reasons. Number one, The U.S. FDA has provided labeling guidance to industry, reaffirmed as recently as April 2013, that the scientifically accurate terms are bioengineered, genetically engineered, or foods produced using biotechnology. Their analysis considers the term genetically modified organism, or GMO, as potentially misleading to consumers because it is a distinction without a difference. And as you said, Mr. Chairman, humans have been genetically modifying crops and animals for tens of thousands of years.    Number two, our own consumer research since the early 1990s has found GMO, as a phrase, to be off-putting at best or even frightening to many consumers. And unfortunately in today's marketplace, it is used as something to avoid and a pejorative, rather than a way to inform consumers.    When we first asked if people were avoiding any particular foods or ingredients in their diet, only two percent of total respondents mentioned biotech food or even similar terms like GMOs. Then we asked them if they could think of any information that currently is not on food labels but should be. Three-quarters of them, 75 percent, said no. Just four percent said that labels should carry information about genetic engineering or related terms. Two-thirds of Americans said they were confident in the safety of the food supply. When we asked people about their specific food safety concerns, biotech or any related term was far down the list at seven percent. When we asked the respondents to offer their impressions of food biotechnology before mentioning any benefits, there was an almost-even split between 28 percent who were favorable and 29 percent unfavorable with more than four in ten either neutral or didn't know.    The survey then asked about which sources of information on food biotechnology consumers trust most. Health organizations, cited by 50 percent of consumers ranked first, followed by Federal Government agencies and health professionals at 45 percent each. We then focused on attitudes toward particular benefits of food biotechnology.    Referring back to my point on language above, it is not surprising that consumers may shy away when provoked to be concerned about ``genetically modified organisms in your food.'' But notice the difference in support when we use more informative language to explain some of the benefits of the technology. Seventy-two percent said they were likely to purchase products made with oils modified by biotechnology to provide more healthful fats. Sixty-nine percent were likely to buy such products if they were modified to reduce the potential for carcinogens, and 69 percent also said they would buy bread, crackers, cookies, cereals, or pasta made with flour modified to use less land, water, and/or pesticides.    Next, we returned to labeling issues and tried to get at consumers' attitudes another way, by asking whether people favored the current FDA policy regarding foods produced using biotechnology. We told them the policy requires special labeling only when biotechnology's use substantially changes the food's nutritional content or when a potential safety issue such as a food allergen is identified. Otherwise, special labeling is not required. Sixty-three percent of respondents supported the current FDA policy, while 19 percent opposed it. In fact, every survey we have conducted since 1997 has found a strong majority of Americans support this FDA labeling policy.    When we looked more generally at the most favored uses of food biotechnology, reducing pesticide applications topped the list, followed by keeping food prices stable and helping feed undernourished people around the world.    Mr. Chairman, in closing, let me emphasize that in our nearly 2 decades of consumer research, we have learned that consumers are supportive of the many benefits of food and agricultural biotechnology when clearly articulated. The food label is not a playground for every bit of information someone might want to know. We rely on the FDA to ensure that the precious real estate available on a food label is reserved for important health, ingredient, and nutrition information, and it is clear that a strong majority of Americans have confidence in the FDA's labeling policy for foods produced using biotechnology. Thank you for this opportunity to share consumers' perspectives.</t>
   </si>
   <si>
+    <t>Fedoroff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fedoroff. Chairman Conway, Representative Peterson, Members of the Committee, thank you for the opportunity to testify before you today. I am Nina Federoff. I am a Professor of Plant Molecular Biology and Genetics. I have had 35 years of experience with GM techniques. I am a member of the U.S. National Academy of Sciences and a National Medal of Science Laureate. I served as Science and Technology Adviser to Secretaries of State Condoleeza Rice and Hillary Clinton. I authored a book titled Mendel in the Kitchen: A Scientist's View of Genetically Modified Foods.    I am here to tell you why mandatory labeling of foods containing GM ingredients will not help Americans make healthful food choices. More than that, I will tell you why such labels could well undermine humanity's efforts to achieve food security.    Now a recent poll, Pew poll, of scientists and the public gave startling results: Only 37 percent of the public believes GMOs are safe as compared with almost 90 percent of scientists.    So why are scientists convinced? GM crops have been in commercial production for almost 20 years. They have an impeccable safety record and multiple environmental benefits. They have boosted farmers' incomes and reduced consumer prices. These are the facts, and they have been documented in independent studies referenced in my written testimony.    Scientific academies around the world concur that modern methods of genetic modification are as safe as those used by previous generations of plant and animal breeders.    Now, until the development of modern GM techniques, breeders had to depend on either rare natural or more recently induced mutations--that is just another term for genetic modifications--to develop better crops. Today we know enough about genes to introduce a desired trait into an already highly productive plant or animal without the undesirable downsides of older methods.    Now it is worth pointing out as the Chairman did that the history of plant and animal genetic modification extends back more than 10,000 years. We created corn, not Mother Nature. We created big, luscious heirloom tomatoes. Mother Nature's are tiny and can be deadly.    Now the FDA just approved Simplot's GM potato that won't turn brown after you cut it, and more importantly, it contains less of a natural amino acid that turns into the toxic compound acrylamide when the potatoes are French fried in hot oil. These potatoes will be more healthful and less wasteful. But today, more than 60 percent of Americans believe that GMOs are unsafe and probably wouldn't choose to buy them.    Now why is that? The reasons lie in the increasingly strident efforts of determined anti-GMO activists to convince the public that GMOs are bad. Some of these folks are--most prominent among these are the NGOs, such as Greenpeace, and marketers of organic foods. A recent, meticulously researched organic marketing report documents how organic marketers have progressively demonized GMOs while advancing organically grown foods as more healthful than conventionally grown food.    Now some of these folks and many other kinds of anti-GMO activists have openly stated that labeling will help them drive GMOs out of the market. Now, the facts are these: Organic produce is no more nutritious than conventionally grown produce. It is more expensive because organic farming is land-inefficient and labor-intensive. The organic industry's false and misleading marketing is a primary reason why consumers believe GMOs are bad and organic food is good. Attaching a GM label provides no consumer benefit since GM foods are as safe and nutritious as their non-GM counterparts. But attaching a label will send the false message that there is something to worry about because the FDA's labels are there to alert consumers to food ingredients with health implications.    Now my final point is that there are serious humanitarian implications should the current GMO vilification efforts succeed in driving GM technology out of agriculture. Global agricultural productivity increases are even now lagging behind population growth, and that is without figuring in the increasingly negative impacts of climate warming.    Now the future lies in agricultural intensification. We will need to produce more crop per drop of water and square meter of land. Genetic modification of plants, in which the United States currently leads, will be the key to feeding the nine or ten billion people we expect for dinner in just a few decades. We cannot afford to discard the best methods we have ever invented to continue growing the food supply and doing it more sustainably.    Thank you very much.</t>
   </si>
   <si>
+    <t>Lidback</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lidback. Thank you. Chairman Conaway, Ranking Member Peterson, and other Members of the Committee. Thank you for inviting me here today. I am here on behalf of Agri-Mark Dairy Cooperative, the National Council of Farmer Co-ops, and the National Milk Producers Federation.    My husband and I have a small 50 cow dairy located in northeast Vermont. We also make extra hay to sell. We raise Jersey steers to process and sell beef locally, and we market a small amount of composted manure. We have two young boys, ages 3 and 2.    My husband and I are both proud to be first-generation dairy farmers. We believe in the science and capability of biotechnology and its role in protecting the sustainability of our farm. Biotech crops are essential to treating our cows and calves. We feed both GMO corn and soy products year round along with pasturing, a grass-based silage, and hay.    I believe that biotech varieties improve efficiency and productivity of farming. In my written testimony, I mentioned that I could not find a non-GMO option available to me, but I have since found it. The non-GMO feed would cost $589 per ton. The same conventional feed we currently feed is $333 per ton. On our small farm, we purchase about 16 tons of grain per month, and if you do the math, that is a difference of about $4,100 a month or $49,000 a year. If there are any dairy economists here, this is the equivalent of $1,000 per cow on our farm. I don't see how we could profitably farm with those increased feed costs.    As a small farm just starting out, we are constantly exploring new opportunities to grow our business. One of the things we have been looking at recently is growing our own corn and alfalfa. In our short growing season, genetically engineered seeds offer the best options for us. Incidentally, over 97 percent of the corn grown for silage in Vermont is biotech crop.    I personally believe that there is room for many different styles of farming. I also believe that biotechnology will play a major role in our ability to feed a growing world and to make improvements on our own individual farms. Certainly, as a dairy farmer, increasing feed costs would have a devastating impact on my business. But beyond our farm gate, we know that the impact would be just as brutal. In my area of rural northeast Vermont, 80 percent of the children in elementary school receive free reduced-price school lunches. It is their families who would suffer the most from price increased caused by mandatory biotech labeling.    As a mother and a consumer, I do not to purchase organic or non-GMO food in the store since I would be paying more with no added nutritional, health, or environmental benefits. I firmly believe the food I feed my two growing boys is safe.    You must be aware that recently my State of Vermont passed a mandatory GMO labeling law. In New England, it is very easy to cross borders for various reasons, such as grocery shopping. If the Vermont labeling law is activated, there will likely be one label on food in Vermont and another on the exact same food in New Hampshire, raising questions about whether or not the product is actually the same.    Furthermore, the Vermont law exempts meat and dairy from being labeled. Other states may not exempt those products as they consider their own GMO labeling bills. Doing so will affect my ability to market my USDA certified Jersey beef across state lines. This serves no one's interests, not consumers, not farmers, not food producers.    I am happy to speak up for our right to farm in whatever way we choose, which in our case, includes biotechnology and the use of GMOs. It is important to continue the conversation about the opportunities and challenges we face as modern-day farmers and parents. When I have one person or ten people reach out to me for a question or appreciating my practical perspective from the farm, then I have succeeded.    Sometimes this isn't an easy task. As the Chairman mentioned, I testified at a Subcommittee hearing on this very topic last summer and received some very rude comments from total strangers on social media and phone calls from them in the middle of the night.    It was not always the most pleasant experience, but being a dairy farmer, I am used to having to do unpleasant jobs from time to time. Even with those negative encounters, or maybe because of them, I was eager to come back and share my experiences today. I am proud of how far the American farmer has come, just as I am proud of how far we have come on our own farm. If my sons choose to continue in farming, I want to know that my husband and I have provided them with a firm foundation to build on.    Thanks again for the opportunity to be here with you today.</t>
   </si>
   <si>
+    <t>Clarkson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clarkson. Chairman Conaway, Ranking Member Peterson, and other Members of the Committee, thank you for inviting me here today. I am the President of Clarkson Grain Company located in Cerro Gordo, Illinois. Clarkson Grain was founded in 1974 by the Clarkson family, pioneering direct delivery marketing to link farmers directly to end-users. From that beginning, we have grown into a grain, oilseed, and ingredient supplier to manufacturing companies making food and animal feed with clients around the world. The company procures its raw materials, primarily corn and soybeans, from farmers in the United States and Canada. We operate our own commercial storage, cleaning, and handling facilities, a barge station, rail sidings. Our products include corn and soy flours, masa, lechitin, whole grains, organic, non-GMO and GMO.    United States farmers excel in delivering the lowest cost agricultural products with a grade standard acceptable to clients. Since our inception, we have segregated corn and soy by variety and market distinction to realize greater value for producers and end-users. Buyers of these identity preserved grains are now asking for features that guarantee their access to particular markets such as GMO specific, non-GMO, and organic. Such buyers range from small family companies to the largest food manufacturers. Shipments range from a small bag to 55,000 ton vessels.    These market preferences are increasingly defining both our domestic and international markets. To secure corn and soy sought by these buyers, we contract with farmers before planting to get particular varieties raised in accord with buyers' wishes. We secure grower cooperation by paying premiums.    Our goal is simple: a happy client. We are not in the business to win a scientific or political argument. We are in business to please clients seeking legitimate product distinctions. We don't tell clients what they should want. We ask them what they want and try to get it for them.    As an identity preserved (IP) merchant, Clarkson Grain is not at all opposed to the development and commercialization of GMO crops. Producers and their supply chain partners however need to recognize that production and handling of any crop has to be conducted in such a way that preferred market access is recognized and honored. Neighboring farmers must have the ability to serve their preferred markets, whether GMO, non-GMO, or organic. Market access and choice are critical to this. Wherever you fall on the GMO spectrum, it is clear to me as an ingredient supplier that an increasingly significant percentage of consumers want additional transparency in labeling. These consumers, the GMO sensitive, have certainly proved themselves to be a significant and vocal voice for transparency in labeling.    The cost of disregarding this voice is increased social conflict, expensive political battles, and uncertainty provided by prolonged court cases. For farmers who use GMOs, this process prolongs the difficulty for the biotech industry to bring traits responsibly into the market. Everyone would win if we could lower the temperature and manage the conflict over GMO technology.    One critical way to lower the temperature is through a rational uniform national standard for the labeling of food that is not produced using GMO traits. Such an action is in the fundamental interests of both consumers and farmers. Consumers have a right to exercise their choice and avoid. Farmers have a right to take advantage of this new market. The creation of a standard could be accomplished through a mandatory labeling scheme, but it is my belief that a more appropriate approach is through a voluntary labeling program. I believe that such approach would be less contentious, less adversarial, and less expensive.    I believe we are in a similar place to where we were with emerging organic market in the early 1990s. At that time differing state standards for organic products were emerging. The result was consumer confusion. Independent companies jumped in. More confusion. Each one was saying their standard was better than the next. So it was a negative for the entire sector.    Once the organic sector settled on a uniform national definition responsibly overseen by the USDA, consumer confidence returned and served as the fundamental rationale for explosive growth.    It is my belief the non-GMO market would also grow if it had a uniform national standard overseen by the USDA. The USDA has a world-class reputation of managing process-verified programs. It seems to me to be straightforward. Let Congress establish a uniform standard, let USDA oversee it, step back, and let the marketplace work as it does.    To sum up, I want to offer one more rationale for establishing a uniform standard. Labeling drives other activities along the supply chain such as seed production. Many producers struggle with a lack of appropriate non-GMO seed. For all these pieces to work together within a reasonable time frame, farmers must have access to an adequate supply.    So in closing I ask for several things. First, Congress to support a farmer's freedom to produce for his preferred markets without being dominated by his neighbor's market decisions. I ask Congress to support through adequate funding, research in non-GMO corn and soy varieties. I ask Congress to support a farmers' choice of hybrids or quality attributes, GMO presence or absence, or organic or non-organic. I ask Congress to help those of us in the countryside to always balance and respect a producer's production decisions as they provide a safe and abundant food supply for the world's needs.    Thank you. I would be happy to answer any questions later</t>
   </si>
   <si>
+    <t>Dempsey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dempsey. I want to thank the Committee, Chairman Conaway, and Ranking Member Peterson for holding this hearing to provide a balanced review of one of the most critical issues facing the food industry today, the labeling of genetically modified organisms, or GMOs.    My name is Tom Dempsey. I have served as the President and Chief Executive Officer of the Snack Food Association since 2013. Prior to joining SFA, I was the President of one of the largest privately owned snack brands in the United States. We represent over 400 companies in the snack industry. My members include both billion-dollar multi-category companies and small family-owned businesses in the second and third generation of management. More than \\1/2\\ of SFA members have sales of less than $100 million a year, and many are the primary employers in their communities.    Mandatory GMO labeling would impact nearly every aspect of my members' businesses, upping costs by requiring increased product inventory, added complexity for packaging and distribution processes, and extensive new regulatory and training requirements. Absent a Federal solution, manufacturers will have essentially three options to comply with a state GMO labeling law: redesign their packaging, reformulate products so that no labeling is required, or halt sales to that state. Each option is difficult, costly, time-intensive, and at worst, could eliminate jobs and consumer choice in the marketplace. Smaller companies may not have these options at all.    A patchwork of mandatory GMO labeling laws would pose significant burdens on the manufacturing process itself. They would require separate storage for GMO and non-GMO products throughout the entire supply chain beginning with the farmer and extending through the various stages of production and distribution. Aside from new administrative and recordkeeping burdens, snack makers would be forced to clean and boil the sheeting, baking, frying, and seasoning lines between GMO and non-GMO production runs with extensive time costly delays.    Duplicative film labeling for the same stock keeping unit or SKU assigned to each product line is also a problem. Film, the industry's term for snack bag packaging, would need to be changed mid-production and two separate inventories of the same finished product must be kept. If one, ten, or 25 states enact different GMO labeling laws, this process would become even more burdensome and difficult to comply with, particularly from an interstate commerce perspective.    Significant lead times and costs would also go into bag changes. The cost in plate charges, new film, and administrative oversight could be more than $750,000 for 800 SKUs, and the process could take 20 to 26 weeks.    GMO and non-GMO producers must continue to be segregated by state, from the factory to the grocery store, resulting in increased distribution costs and heightened opportunity for mistakes.    To be clear, the hardest hit by this will be one-plant operators with a single line of production. These costs could put family-owned businesses out of business and increase consolidation in the industry.    While it is sometimes assumed that companies could remove GMO ingredients from their products, this is unrealistic because the availability of non-GMO crops, as you have heard, is limited. Over 80 percent of the corn, cotton, and soybean crops in the United States are produced with biotechnology, all of these products, which are staple items in the snack food production.    Our members will not have the opportunity to increase their contracts with farmers or mills for non-GMO corn, for instance, for over 2 years. Transitioning to GMO-free production will not happen overnight from genetically engineered plants.    Some manufacturers may choose to end distribution in states that require GMO labeling resulting in fewer product options for consumers and causing a ripple effect in the grocery industry. Even if manufacturers notify grocers of their intent to stop selling in a state, manufacturers could run the risk of being fined if retailers do not comply or if mistakes happen in the distribution process.    Fewer players in the aisle could mean less incentive to keep quality high and prices low. Fewer products could disproportionately cause job losses for some in the distribution chain.    Ultimately, a patchwork of state GMO laws will hit consumers the hardest in result in either increased cost at the grocery store or less availability of products on store shelves. Current Federal law mandates food labels for safety and nutritional purposes, and because GMOs as you have heard have proven to have no material difference than non-GMOs, there is no food safety or nutritional difference that requires an additional label. Going down a path which calls for mandatory GMO labels sets a bad precedent for future calls for mandatory labels for issues that are not related to food safety or nutrition.    Consumers already have the option to purchase non-GMO foods, and these options continue to expand. For over a decade, both the USDA's National Organic Program and the independent Non-GMO Project have certified that foods are organic and GMO-free respectively.    Many SFA members have already made the significant investment in marketing decisions to display these voluntary labels. Forcing companies to re-label more than 80 percent of their products does nothing but add cost, confusion, and may limit the choices.    SFA does not have a single member company that manufactures, distributes, and sells in just one state which makes a state labeling law incredibly complex. Multiply these challenges by five, ten, or 25 states and an insurmountable burden is placed on the supply chain. SFA supports a voluntary labeling standard which eliminates the proposed patchwork of state laws and allows the market forces that are already in place to continue to inform the consumer. As more and more states continue to pursue different mandatory GMO labeling laws, manufacturers and consumers alike need the consistency of a Federal standard, and we need it urgently.    Thank you for your time and consideration.</t>
   </si>
   <si>
+    <t>Policinski</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Policinski. Thank you. Thank you, Chairman Conaway, Ranking Member Peterson, and Members of the Committee. Thank you for holding today's hearing on the costs and impacts of mandatory biotechnology labeling laws.    I appreciate the opportunity to testify on this important issue. I am Chris Policinski, President and CEO of Land O' Lakes. I also serve as Chairman of the National Council of Farmer Cooperatives and am a Board Member of the Grocery Manufacturers Association.    Land O' Lakes, based in Arden Hills Minnesota, is a farmer-owned cooperative, meaning it is owned, governed, and controlled by farmers and local agricultural cooperatives. Land O' Lakes touches more than 300,000 farmers across the country making us well-positioned to understand the benefits of biotechnology and the impact of measures designed to mandate the labeling of GMO products.    Biotech crops have been around for 2 decades and provide extraordinary benefits to farmers and consumers: higher crop yields per acre, less tilling of the land, decreased use of natural resources such as water and land, reduced use of insecticide, better soil quality, and lower consumer prices are just some of the benefits GM crops provide.    Despite these benefits and the proven safety of GMOs, some are pushing for states to pass laws that would mandate the labeling of GMO foods. We are told this is about consumer choice. The consumers already have these choices and many others. Some choose to pay a premium for food that is produced by certain methods, such as organic or does not contain certain ingredients, such as those that are gluten-free. Others prioritize affordability, accessibility, convenience, or taste. Voluntary labeling currently presents all of these choices in the marketplace, and that is the model that should exist for GMO labeling as well.    Mandating GMO labeling runs contrary to the essential purpose of government-mandated labeling, which is to provide consumers with accurate and relevant information regarding the safety of the foods they eat. Every major health and regulatory organization has found that GMOs are as safe as any other food and as such do not require any special labeling.    Mandated GMO labeling is an effort to stigmatize a form of technology in an attempt to drive it out of the marketplace. You don't have to take my word for it. Two months ago an activist association published an article admitting that the push to enact state-wide GMO labeling is part of a larger effort to drive GMOs off the market. In addition to stigmatizing biotechnology, a state-by-state patchwork of mandated food labeling laws would be a logistical nightmare creating dozens of different standards, different definitions, and different exemptions.    Fortunately, Congress has the authority and the responsibility to protect the free flow of goods across state lines. Uniformity in our nation's food labeling ensures consumers have consistent, accurate information on dairy, poultry, meat, and other foods. Under Federal preemption, Congress can create a voluntary uniform national solution to the labeling of food products derived from ingredients using biotechnology. The value of this approach is that it not only respects a consumer's right to choose but it also respects a farmer's right to choose to use a safe, proven technology.    Stigmatizing GMO foods through a patchwork of state labeling mandates or even mandatory Federal labeling jeopardizes innovation and threatens the future of development and use of technology in agriculture. As a result, farmers will have fewer choices of what to plant. We will see higher costs due to crop segregation, lower yields, a decline in productivity, and an increased environmental footprint. That is dangerous for everyone.    And this threat is real and imminent. There is currently some form of GMO labeling legislation pending in over \\1/2\\ of our state legislatures, and Vermont's GMO labeling mandate is scheduled to take effect next year. That is why I strongly urge Congress to enact a common-sense law that will provide farmers and consumers with the clarity and certainty needed for meaningful, voluntary food labeling.    Last year our company supported the Safe and Accurate Food Labeling Act, and we understand that similar legislation will be introduced soon. Updates to the bill from last year may include the creation of a voluntary, non-GMO verification program run by the U.S. Department of Agriculture. We would support such a provision which would ensure that consumers get accurate information while preserving choices available to shoppers and farmers.    Thank you again for the opportunity to testify before this Committee. I look forward to working with each of you this year to pass a common-sense solution that meets the demands and expectations of the American people.</t>
   </si>
   <si>
@@ -151,6 +190,12 @@
     <t>412463</t>
   </si>
   <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman. It is a great panel, and I want to commend Ms. Lidback for your work and also a young couple starting in the agriculture industry, that is commendable, and you say you have two kids, 2 and 3. Really, if more kids could grow up on the farm, it would be great for our country I believe.    I want to kind of look back for a little perspective. Back in 1950, my understanding is the national corn yield was 50 bushels to the acre. In 1975, 40 years ago when I started farming, my goal was to have 100 bushels an acre. And now we are pushing 200 bushels an acre here nationally. Anything under 150 bushel would be considered a disaster. I know Land O' Lakes is shaking his head there.    And it was pointed out, this change from 1950 to 1975 where we doubled the production, I always contend it is from figuring out soil nutrient fertility, also hybrid selection, natural hybrid selection, and then I would contend from this period forward now where we have pretty much doubled the yield again, it is because we have been able to select the genetics in a faster way like Dr. Federoff says. We have been doing it for thousands of years or at least from our perspective, 100 years or so. So we have been able to identify those genes and do it exponentially in the lab. So it is really no different. So that is one of the reasons why the scientists say it is safe, because we know what those genes are. We can identify them. But the benefits, we are growing--we are having 14 billion bushels of corn crops a year now annually on less acres. Every year it is less acres. So it is really a food security issue. The American farmers have provided the food for this country, and we also export \\1/3\\ of it. It is a food security yield but it is about yields. And if we didn't have what has happened in the last 25 years of this yield, we would be having food shortages. Do you agree with that, Mr. Policinski?</t>
   </si>
   <si>
@@ -169,6 +214,12 @@
     <t>400263</t>
   </si>
   <si>
+    <t>McGovern</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McGovern. Thank you, and thank you all for your testimony. Let me begin by saying everybody is reading from the same sheet of music here, but nobody here is in favor of mandatory GMO labeling, am I correct? If we are going to have a thoughtful discussion on this, we ought to have more of a diversity of opinion at a hearing like this because it is important to hear all sides of the subject.    But let me begin by saying that I am a believer in science. I rely on the scientists to give me informed information. That is why I believe in climate change as well. That is a subject for another hearing. But the point of the matter is that there is great value in our sciences. So I am not here to demonize GMOs or the technology behind them. I don't think anybody should be fear-mongering about GMOs. I don't think anybody should be threatening anybody who wants to produce GMO crops or whatever. We ought to be able to have a more kind of a measured conversation on this.    But I do believe in transparency, and I do believe people ought to have a right to know what they want to know. The consumers ought to have the right to know what they are eating and what they are feeding their kids, and how they use that information in their food choices is up to them, not up to us, but up to them. There is great confusion with the labeling system now. I mean, I saw a poll from Consumer Union that found 60 percent of consumers believe that products that say natural means non-GMO when in fact that is not the case. More consumers think natural means non-GMO than think organic means non-GMO.    The current system, and even kind of a voluntary system is lacking. We were told that changing labels will cost food companies. Food companies change their labels all the time. It is a false argument to say that labeling requirements will drive up the cost of food. I do believe there ought to be a national standard because I do understand the patchwork of various state initiatives is not in anybody's interest.    In response to the idea that if a product said, ``contains GMOs'' or whatever the label would be, that somehow that would discourage people from buying those products, you have 64 country around the world already require labeling of GMO foods. Brazil, a country whose consumption patterns are similar to those in the United States, has required GMO labeling since 2001. And from what I can tell, there has been no significant change in consumption patterns.    But let me just raise one point here. I am deeply troubled by Friday's announcement from the World Health Organization's International Agency for Research on Cancer, that glyphosate, the herbicide most commonly used on GMO crops, is a probable human carcinogen. Now, IARC is made up of some of the most renowned scientists in the world, and if they are saying that glyphosate is a likely cause of cancer, I mean, that may be something that people want to know.    So I guess my question is, because GMO corn and soybeans, for example, are designed to withstand glyphosate, the use of that herbicide has grown dramatically in recent decades, and given Friday's announcement, I mean, don't you think people should have the right to know how their food is grown and make their own decisions? Anybody wants to----</t>
   </si>
   <si>
@@ -196,6 +247,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thank you, Mr. Chairman. I appreciate the hearing, and thank you to the panelists, too, for being here today.    I believe that people have a right to know what it is that they are consuming, and I also feel very strongly about science and recognize the fact that we have avoided famine, because as was mentioned, we have modified over the years. So I recognize that as well.    I represent 11 counties in Upstate New York. I am a fervent and a strident advocate for my farmers. Ensuring the viability of our family farms is critical, a principle that we can't drop as we move forward reconciling right-to-know and science. And so I thank Ms. Lidback for being here today, and thank you for your testimony.    I also have tremendous faith in the American people that empowered with information--I guess I don't agree with some of the assessments that they would change their consumption habits. I think that they will make good choices. And so I just want to put that on the record, too. As it relates to right-to-know, if we thought about it more broadly, we get fixated on labels immediately. I would be interested in the panel's response to the possibility of right-to-know with an approach that provided details on modification on a website where individuals could go to get information. I would be curious to know what their reaction would be to that technique.</t>
   </si>
   <si>
@@ -220,6 +277,12 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman, and I have for the record a report that I would like to enter from Cardinal Peter Turkson, President of the Pontifical Council for Justice and Peace.    The Chairman. Without objection.    [The document referred to is located on p. 79.]</t>
   </si>
   <si>
@@ -247,6 +310,12 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Benishek. Thank you, Mr. Chairman. Thanks to the panel for being here today. Dr. Federoff, are the changes that have been made in the lab, treatment of plants, changed their properties any different than the way we have been doing it for thousands of years?</t>
   </si>
   <si>
@@ -295,6 +364,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Ms. Lidback, in your testimony you mentioned that the marketplace is already sorting out some of the non-GMO labeling without legislative mandates. I wanted to just get your feeling and your perception and that of your peers I suppose on the Whole Foods discussion, that in 2018 they plan to have all their products in the United States and in Canada labeled.    Can you give the Committee your views on these kind of private-sector driven initiatives?</t>
   </si>
   <si>
@@ -337,6 +412,12 @@
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Thank you, Mr. Chairman, and once again, I appreciate the panel here and basically the comments that you have had about this particular issue. One of the things, Dr. Federoff, that I have been sitting here thinking about is as far as the testing of these products. Are there any risks for consumers to choose organic foods?</t>
   </si>
   <si>
@@ -415,6 +496,12 @@
     <t>412629</t>
   </si>
   <si>
+    <t>Bost</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bost. Thank you, Mr. Chairman. First off, we probably went down this earlier, but I have been bouncing in and out of the room. Mr. Policinski, I would like to know if I can what your company is already--because Vermont has already passed a law. Are you preparing already and whether those costs that you are seeing and everything for one state and how you are going to handle it. Because I know we have talked about three different options that could be available. And where are you going with that at this time?</t>
   </si>
   <si>
@@ -445,9 +532,18 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Mr. Chairman, and thank you all for your testimony. I think it is appropriate we are here. Tomorrow, March 25, would have been the 101st birthday of Minnesota graduate and researcher, Norman Borlaug, so the discussion we are having falls directly into that. And I am appreciative of all of your time and effort.    I would point out, and we are trying to get to the heart of this, our responsibility in Congress and our responsibility I would argue each of you is to define a problem, gather the information, and then make correct assumptions to that, and that is what we are trying to get at.    January 2015 Pew Research Center study came out and showed that 89 percent of scientists believe that GMOs are safe, that 37 percent of the public did. And I am going to come back to this. Yes, it is the 800 pound gorilla in the room, but the science and the preponderance of the evidence on this seems to warrant where we are headed. And we can get into this issue with Norman Borlaug's position, with 12 billion people on the horizon for 2100, with the idea of how we are going to feed these people, but the problem we have in this place is you can't be selective when the preponderance of the evidence shows something. And we do that. And there better be some soul searching on both sides of the aisle on this, as to let the science and the research drive us to come up with conclusions that work. And it is important, both for consumer safety and sense of fairness.    The point was brought up, Mr. Clarkson's point about ratcheting down the rhetoric is exactly it. But while I would make the argument, and I respectfully say, that the Chairman will run his Committee as he wants to. The questions that Mr. McGovern brought up, there should be some dissenting voices here or we end up in the situation like the outlandish situation in Florida where state officials can't talk about climate change. Well, you give a perception that there is something you don't want people to talk about. The evidence is clearly here that this is a way to feed people. It always has been. It is as much about Mesopotamia as it is about Monsanto, and that is the discussion that we have to have and have fairly so that we can make good decisions.    And I am just troubled that we will go down a road. And there are some interesting things. Dr. Federoff, you brought up a good point. This one has always gotten me a little bit. Orange juice, for example, the Florida citrus folks, and they want to sell them. They label no GMOs on there. There are no GMO oranges. But here is the thing. There may need to be soon with the greening, the citrus greening disease, that is coming. So they may regret that decision that we are going to end up with those eventually, because of this new entrance into the environment.    So I applaud all of you for being here. I would ask my colleagues, this gives us an opportunity to reset on some of these things. You can't say, wow. The preponderance of the evidence and the scientific consensus is nearly whole on this issue and then walk to another committee room and have the exact same folks. Now, I get it. There is 11 percent of scientists here. I bet you they are not egronimous that are part of that. And to bring in someone else in an unrelated field and use that, that is the outlier that Dr. Federoff said, and we are going to base our decisions on that. Because I would make this argument here as feeding the world's population, continuing to advance, continuing to do. The things you do is feed, clothe, and power the world, is going to involve a simultaneous discussion on climate change as it deals also with GMOs. And I wish we would have the maturity, the ability to be able to do what you all have clearly laid out today.    And Ms. Lidback, I apologize for those people who would question you because you have the audacity to talk about the science. Trust me, it happens on other issues, too, unfortunately. But your willingness to come here and speak about this and talk about it, and the powerful thing here, too, just hearing this, the organic folks can make three times more. Well, good for them if they are going to be able to. And that is where we are at. We are not trying to stop that.    But it is an important point and an important discussion that we cannot drive policy, whether it is on labeling or how we go about things that is not based on the evidence, that is not based on research, because that will lead to bad outcomes all the way around.    So I want to thank each of you for being here. I want to ask my colleagues to have the courage to discuss these things as they are and then to come up with good solutions. And that shouldn't be all that difficult. The good news here is that our producers continue to be the most productive in the world. Our researchers continue to be the most innovative, and we are able to provide the most abundant, safest, affordable food supply in the world, and we can do that around the world. So this is an important discussion. It is broad, it is important, and I applaud each of you for continuing to bring it to the forefront and hopefully we will get a good solution for you and for the consumers. Thank you.    The Chairman. The gentleman yields back. Mr. Emmer, for 5 minutes?</t>
   </si>
   <si>
+    <t>Emmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman. And first to the panel, thank you for being here. And I apologize. I had to step out and come back. This is quite an operation in this place. You have several meetings all at the same time in different buildings, and there must be a better way to run the train station.    Be that as it may, I respect your time. Listening to my colleague from Minnesota talk about there should be dissenting voices in the room, most of us would agree that if the world would just agree with our position, it would be a much better place to live in. But that doesn't happen. And somebody can correct me, but it was Bobby Kennedy that said something to the effect that if you can get the American public, 80 percent of the American public to agree on anything, that should be considered unanimous. And in this case, when you have 90 percent of the science out there agreeing, that is pretty close to being unanimous.    I want to go at this very quickly from a different--again, forgive me if somebody has already done this. I wasn't here. So please be patient with me. I want to go at it from the specific costs and break it down by level.    Mrs. Lidback, you are running a dairy operation. You have costs that are going to be added on for--you talked about the inputs when I was here earlier. You were talking about the cost of feed. Aren't there other costs in terms of having to manage and record, get inspections, certification. Have you talked about those already today?</t>
   </si>
   <si>
@@ -490,6 +586,12 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman. I think this is not only a critical issue here in our country but also as it relates to the labeling issues, a critical issue as we negotiate these trade agreements, both with the European allies and as well as in Asia.    I, Mr. Schmidt, was interested in your comments earlier on in terms of the polling sampling that you have taken and undergone, and what it really made me think about--and Dr., is it----</t>
   </si>
   <si>
@@ -544,6 +646,12 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, and Mr. Costa, being a veterinarian, large animal practitioner that earned a living on the south end of a north-bound horse or cow, it wasn't manure. It was fertilizer until it hit the ground.    I appreciate you all being here, and we as the people in government--because government is a non-entity. It is only as good as the people that are involved in it, in all branches of it, that we need to do a better job on educating both us and government and the public on educating people and in public venues to get the best, the current, and the correct information out to the public that is updated and is based on peer-reviewed science, and it is stemming from accurate research. And we also need to do a better job of making current the information and policies on a website of what a GMO is and what it is not and keep agendas or politics out of it and let the facts speak for themselves.    Dr. Federoff, if you could take us briefly through the process of taking a genetically modified product from the beginning to the market in less than a minute, I would be really appreciative if you could. But just the research that goes behind that before it is approved.</t>
   </si>
   <si>
@@ -590,6 +698,12 @@
   </si>
   <si>
     <t>412607</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Alma</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Adams. Thank you, Mr. Chairman, and thank you to our guests today. There has been a lot of confusion over what qualifies as a label for food that contains ingredients derived from a GMO. Consumers I believe deserve to know what is in their food, but it is also necessary that FDA implement regulations to ensure that the labeling of GMO products is fair and standardized and transparent. Market-driven labeling ensures that the information they demand about the food being sold is clear and accurate without the confusion of dozens of different labels.    Mr. Clarkson, your testimony indicated that the best way to support consumers is through a national standard that includes a voluntary labeling program. So if the program is voluntary, how long would you expect for retailers and producers to begin participating in the program?</t>
@@ -977,7 +1091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +1099,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,4373 +1121,5088 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>87</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>87</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>98</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G61" t="s">
+        <v>98</v>
+      </c>
       <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>98</v>
+      </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
       <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>98</v>
+      </c>
       <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G69" t="s">
+        <v>98</v>
+      </c>
       <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
       <c r="H73" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
       <c r="H74" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G76" t="s">
+        <v>116</v>
+      </c>
       <c r="H76" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G78" t="s">
+        <v>116</v>
+      </c>
       <c r="H78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
       <c r="H80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>132</v>
+      </c>
       <c r="H87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G89" t="s">
+        <v>132</v>
+      </c>
       <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G93" t="s">
+        <v>132</v>
+      </c>
       <c r="H93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G95" t="s">
+        <v>132</v>
+      </c>
       <c r="H95" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G97" t="s">
+        <v>132</v>
+      </c>
       <c r="H97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G99" t="s">
+        <v>132</v>
+      </c>
       <c r="H99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>132</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>106</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G106" t="s">
+        <v>132</v>
+      </c>
       <c r="H106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>106</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G108" t="s">
+        <v>132</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I108" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G116" t="s">
+        <v>160</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G118" t="s">
+        <v>160</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G120" t="s">
+        <v>160</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G122" t="s">
+        <v>160</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="G123" t="s">
+        <v>172</v>
+      </c>
       <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>175</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s">
+        <v>175</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>175</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>175</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s">
+        <v>175</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
+        <v>175</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s">
+        <v>175</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G137" t="s">
+        <v>190</v>
+      </c>
       <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G139" t="s">
+        <v>190</v>
+      </c>
       <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I139" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G141" t="s">
+        <v>190</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I141" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G143" t="s">
+        <v>190</v>
+      </c>
       <c r="H143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G144" t="s">
+        <v>190</v>
+      </c>
       <c r="H144" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I144" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>157</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G146" t="s">
+        <v>190</v>
+      </c>
       <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I146" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>157</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G148" t="s">
+        <v>190</v>
+      </c>
       <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I148" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s">
+        <v>27</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>157</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G150" t="s">
+        <v>190</v>
+      </c>
       <c r="H150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I150" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>157</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G152" t="s">
+        <v>190</v>
+      </c>
       <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I152" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>157</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="G153" t="s">
+        <v>190</v>
+      </c>
       <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>191</v>
+      </c>
+      <c r="I153" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G154" t="s">
+        <v>210</v>
+      </c>
       <c r="H154" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>175</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G156" t="s">
+        <v>210</v>
+      </c>
       <c r="H156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I156" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G158" t="s">
+        <v>210</v>
+      </c>
       <c r="H158" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>175</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G161" t="s">
+        <v>210</v>
+      </c>
       <c r="H161" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I161" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>27</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>175</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G163" t="s">
+        <v>210</v>
+      </c>
       <c r="H163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I163" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G165" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G166" t="s">
+        <v>210</v>
+      </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I166" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G167" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G168" t="s">
+        <v>210</v>
+      </c>
       <c r="H168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I168" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>175</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>209</v>
+      </c>
+      <c r="G170" t="s">
+        <v>210</v>
+      </c>
       <c r="H170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>211</v>
+      </c>
+      <c r="I170" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>191</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G171" t="s">
+        <v>228</v>
+      </c>
       <c r="H171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>191</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G173" t="s">
+        <v>228</v>
+      </c>
       <c r="H173" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I173" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>191</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G175" t="s">
+        <v>228</v>
+      </c>
       <c r="H175" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I175" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G176" t="s">
+        <v>25</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>191</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="G177" t="s">
+        <v>228</v>
+      </c>
       <c r="H177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>229</v>
+      </c>
+      <c r="I177" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G178" t="s">
+        <v>25</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G179" t="s">
+        <v>25</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G180" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G182" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>204</v>
+        <v>24</v>
+      </c>
+      <c r="G183" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93965.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400316</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Peterson</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412536</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -1091,7 +1100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +1108,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,5085 +1133,5436 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I61" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I67" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G71" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G74" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J80" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>35</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G93" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J95" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>27</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G97" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I97" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I99" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G101" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G104" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I104" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>35</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G106" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G108" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I108" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G114" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G116" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I116" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>35</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>38</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G120" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I120" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>33</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G123" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="H123" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>175</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>178</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>32</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>175</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>33</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>175</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>178</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>35</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>38</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>175</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>178</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>175</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>178</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>32</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>175</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>178</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>32</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>175</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>178</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G137" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I137" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J137" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>30</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G139" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I139" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G141" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H141" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I141" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>27</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>30</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G143" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I143" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G144" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I144" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G146" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>30</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G148" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I148" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>27</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>30</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G150" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I150" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J150" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G152" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I152" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J152" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G153" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I153" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>194</v>
+      </c>
+      <c r="J153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G154" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I154" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G156" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I156" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G158" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I158" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J158" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>30</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" t="s">
-        <v>27</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>30</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G161" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H161" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I161" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J161" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s">
-        <v>27</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G163" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H163" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I163" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>27</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>30</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G166" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H166" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I166" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>27</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G168" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H168" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I168" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G170" t="s">
-        <v>210</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I170" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J170" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G171" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="H171" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I171" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>232</v>
+      </c>
+      <c r="J171" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>34</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G173" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I173" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>31</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>34</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G175" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="H175" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I175" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>232</v>
+      </c>
+      <c r="J175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s">
-        <v>25</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>28</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G177" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="H177" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>232</v>
+      </c>
+      <c r="J177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>25</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>28</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>28</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>30</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>27</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>30</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>242</v>
+        <v>27</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
